--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -296,43 +296,43 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
     <t>193-quinquies,193-quater</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
   </si>
   <si>
     <t>Comune ente</t>
@@ -390,7 +390,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -398,34 +398,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.76171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -896,7 +897,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>44</v>
@@ -1336,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>89</v>
@@ -1736,7 +1737,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>92</v>
@@ -1745,7 +1746,7 @@
         <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -1753,19 +1754,19 @@
         <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -1773,19 +1774,19 @@
         <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1793,19 +1794,19 @@
         <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -1813,19 +1814,19 @@
         <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1833,7 +1834,7 @@
         <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
@@ -1842,7 +1843,7 @@
         <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1853,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
@@ -1862,10 +1863,10 @@
         <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73">
@@ -1905,7 +1906,7 @@
         <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
@@ -1925,7 +1926,7 @@
         <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1986,7 @@
         <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
@@ -2005,7 +2006,7 @@
         <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
@@ -2085,7 +2086,7 @@
         <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84">
@@ -2125,7 +2126,7 @@
         <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86">
@@ -2245,7 +2246,7 @@
         <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
@@ -2285,7 +2286,7 @@
         <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
@@ -2305,7 +2306,7 @@
         <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
@@ -2371,273 +2372,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997FAFF5-9972-40AD-B4FB-2FC29068F844}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62164ED2-16DC-4E0D-BA75-547B779399EE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C686CB61-9564-423D-936E-2552629A6316}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>106</v>
@@ -1931,39 +1937,39 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1971,39 +1977,39 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>106</v>
@@ -2011,39 +2017,39 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2071,99 +2077,99 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2231,79 +2237,79 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>106</v>
@@ -2311,39 +2317,39 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2351,21 +2357,41 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Dati trascrizione</t>
+  </si>
+  <si>
+    <t>Data Unione civile</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -421,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -806,10 +815,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -820,16 +829,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -840,16 +849,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -857,19 +866,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -877,19 +886,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -897,19 +906,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -917,19 +926,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -937,19 +946,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -957,19 +966,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -977,19 +986,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -997,19 +1006,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1017,19 +1026,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1037,19 +1046,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1057,19 +1066,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1077,19 +1086,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1097,19 +1106,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1117,19 +1126,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1137,19 +1146,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1157,19 +1166,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1177,19 +1186,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1197,19 +1206,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1217,19 +1226,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1237,19 +1246,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1257,19 +1266,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1277,19 +1286,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1297,19 +1306,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1317,19 +1326,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1337,19 +1346,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1357,19 +1366,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1377,19 +1386,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1397,19 +1406,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1417,19 +1426,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1437,19 +1446,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1457,19 +1466,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1477,19 +1486,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1497,19 +1506,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1517,19 +1526,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1537,19 +1546,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1557,19 +1566,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1577,19 +1586,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1597,19 +1606,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1617,19 +1626,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1637,19 +1646,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1657,19 +1666,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1677,19 +1686,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1697,19 +1706,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1717,19 +1726,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1737,10 +1746,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -1749,7 +1758,7 @@
         <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1757,7 +1766,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>94</v>
@@ -1766,10 +1775,10 @@
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1777,19 +1786,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1797,19 +1806,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1817,19 +1826,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1837,19 +1846,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1857,27 +1866,27 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>107</v>
@@ -1886,58 +1895,58 @@
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>114</v>
@@ -1946,38 +1955,38 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>46</v>
@@ -1986,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1997,79 +2006,79 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2077,19 +2086,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2097,99 +2106,99 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2197,19 +2206,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2217,19 +2226,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2237,19 +2246,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2257,119 +2266,119 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2377,21 +2386,41 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -442,6 +448,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,225 +470,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -703,1725 +746,1986 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -448,7 +448,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193-quater</t>
+  </si>
+  <si>
+    <t>193-quinquies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193-quater</t>
-  </si>
-  <si>
-    <t>193-quinquies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -747,1985 +750,1985 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -224,6 +224,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -363,9 +369,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -439,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1198,7 +1201,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>50</v>
@@ -1290,7 +1293,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -1405,7 +1408,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>50</v>
@@ -1468,19 +1471,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1494,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1517,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1540,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1563,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1586,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1609,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1632,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1655,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1678,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1701,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1724,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1747,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1770,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1793,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1816,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1839,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1862,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1885,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1908,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1931,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1954,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,16 +1980,16 @@
         <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,16 +2003,16 @@
         <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2023,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2046,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2069,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2092,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2112,22 +2115,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>28</v>
@@ -2135,19 +2138,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2158,22 +2161,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2181,22 +2184,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2204,22 +2207,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2227,22 +2230,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2250,22 +2253,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2273,22 +2276,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2296,22 +2299,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>28</v>
@@ -2319,22 +2322,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2342,22 +2345,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2365,19 +2368,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2388,22 +2391,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2411,19 +2414,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2434,22 +2437,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2457,19 +2460,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2480,22 +2483,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2503,22 +2506,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2526,19 +2529,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2552,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2572,22 +2575,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2595,19 +2598,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2618,22 +2621,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2641,22 +2644,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2664,19 +2667,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2687,22 +2690,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2710,24 +2713,93 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,9 @@
     <t>dataComunicazione</t>
   </si>
   <si>
+    <t>193-quinquies,193-quater</t>
+  </si>
+  <si>
     <t>Tipo atto da trascrivere</t>
   </si>
   <si>
@@ -302,6 +305,30 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Unito civilmente 2</t>
   </si>
   <si>
@@ -356,9 +383,6 @@
     <t>siglaProvinciaEnte</t>
   </si>
   <si>
-    <t>193-quinquies,193-quater</t>
-  </si>
-  <si>
     <t>Comune ente</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
 </sst>
 </file>
@@ -442,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -902,7 +929,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -911,7 +938,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -922,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -931,7 +958,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -945,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -954,7 +981,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -965,19 +992,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -988,19 +1015,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1011,19 +1038,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1034,19 +1061,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1057,19 +1084,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1080,19 +1107,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1103,19 +1130,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1126,19 +1153,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1149,19 +1176,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1172,19 +1199,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1195,19 +1222,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1218,19 +1245,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1241,19 +1268,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1264,19 +1291,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1287,19 +1314,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1310,19 +1337,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1333,19 +1360,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1356,19 +1383,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1379,19 +1406,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1429,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1452,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1475,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1498,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1521,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1544,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1567,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1590,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1613,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1636,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1659,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1682,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1705,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1728,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1751,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1774,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1797,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1820,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1843,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1866,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1889,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1912,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1935,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1958,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1981,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +2004,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2027,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2050,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2073,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2096,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2119,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2142,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2165,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,22 +2188,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2184,19 +2211,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,22 +2234,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2230,22 +2257,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>28</v>
@@ -2253,22 +2280,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2276,19 +2303,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2326,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,22 +2349,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2345,22 +2372,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2368,19 +2395,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2391,22 +2418,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2414,22 +2441,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2437,22 +2464,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2460,19 +2487,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2483,22 +2510,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>28</v>
@@ -2506,22 +2533,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2529,22 +2556,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2552,19 +2579,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2602,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2625,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2621,22 +2648,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2644,22 +2671,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2667,22 +2694,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2690,22 +2717,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2713,22 +2740,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2736,19 +2763,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2786,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2782,24 +2809,208 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -1044,7 +1044,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
@@ -1665,7 +1665,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>106</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,7 +119,7 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati trascrizione</t>
+    <t>Dati della trascrizione</t>
   </si>
   <si>
     <t>Data Unione civile</t>
@@ -131,6 +131,51 @@
     <t>dataEvento</t>
   </si>
   <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -179,6 +224,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -227,19 +278,16 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -393,9 +441,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Richiedente</t>
@@ -469,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
@@ -938,7 +983,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -949,16 +994,16 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -972,16 +1017,16 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -992,19 +1037,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1015,19 +1060,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1038,19 +1083,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1061,19 +1106,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1084,22 +1129,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1107,19 +1152,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1130,19 +1175,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1153,7 +1198,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -1162,10 +1207,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1176,19 +1221,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1199,19 +1244,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1222,19 +1267,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1245,19 +1290,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1268,19 +1313,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1291,19 +1336,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1314,19 +1359,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1337,19 +1382,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1360,19 +1405,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1383,19 +1428,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1406,16 +1451,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>88</v>
@@ -1429,16 +1474,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -1452,7 +1497,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>91</v>
@@ -1461,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>92</v>
@@ -1475,7 +1520,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>93</v>
@@ -1484,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>94</v>
@@ -1498,7 +1543,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>95</v>
@@ -1507,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>96</v>
@@ -1521,7 +1566,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>97</v>
@@ -1530,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1544,7 +1589,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -1553,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1567,7 +1612,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>101</v>
@@ -1576,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>102</v>
@@ -1590,7 +1635,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>103</v>
@@ -1599,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>104</v>
@@ -1613,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1958,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1981,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2372,22 +2417,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>28</v>
@@ -2395,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2418,22 +2463,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2441,22 +2486,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>28</v>
@@ -2464,22 +2509,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>28</v>
@@ -2487,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2533,22 +2578,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>28</v>
@@ -2556,22 +2601,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2579,22 +2624,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2602,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2625,22 +2670,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2648,22 +2693,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2671,22 +2716,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2694,22 +2739,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2717,22 +2762,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2740,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,22 +2808,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2786,22 +2831,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2809,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2855,22 +2900,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2878,22 +2923,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2901,22 +2946,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>28</v>
@@ -2924,22 +2969,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -2947,22 +2992,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -2970,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2993,24 +3038,254 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -974,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1526,7 +1532,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
@@ -1549,7 +1555,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>66</v>
@@ -1687,7 +1693,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>66</v>
@@ -1756,7 +1762,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>66</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,16 +2495,16 @@
         <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,16 +2518,16 @@
         <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,22 +2630,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>28</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>59</v>
@@ -2693,22 +2699,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>59</v>
@@ -2739,22 +2745,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2762,22 +2768,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>28</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,22 +2814,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2831,22 +2837,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>28</v>
@@ -2854,22 +2860,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2877,22 +2883,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,22 +2929,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>59</v>
@@ -2992,22 +2998,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>28</v>
@@ -3015,22 +3021,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>28</v>
@@ -3038,22 +3044,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3107,22 +3113,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3130,22 +3136,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>28</v>
@@ -3153,22 +3159,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3176,22 +3182,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>59</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,22 +3251,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3268,24 +3274,93 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1716,7 +1722,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>66</v>
@@ -1785,7 +1791,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>66</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,16 +2547,16 @@
         <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,16 +2570,16 @@
         <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,22 +2682,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>59</v>
@@ -2745,22 +2751,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>28</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>59</v>
@@ -2791,22 +2797,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>28</v>
@@ -2814,22 +2820,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>28</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,22 +2866,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>28</v>
@@ -2883,22 +2889,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>28</v>
@@ -2906,22 +2912,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>28</v>
@@ -2929,22 +2935,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>28</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,22 +2981,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>28</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>59</v>
@@ -3044,22 +3050,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>28</v>
@@ -3067,22 +3073,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>28</v>
@@ -3090,22 +3096,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>28</v>
@@ -3113,22 +3119,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>28</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>59</v>
@@ -3182,22 +3188,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3205,22 +3211,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>28</v>
@@ -3228,22 +3234,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3251,22 +3257,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>59</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,22 +3326,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3343,24 +3349,93 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -393,6 +393,87 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -526,17 +607,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2596,7 +2677,7 @@
         <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>129</v>
@@ -2608,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
@@ -2616,22 +2697,22 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -2639,22 +2720,22 @@
         <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
@@ -2662,22 +2743,22 @@
         <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
@@ -2685,22 +2766,22 @@
         <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
@@ -2708,7 +2789,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2717,13 +2798,13 @@
         <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96">
@@ -2743,10 +2824,10 @@
         <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97">
@@ -2763,13 +2844,13 @@
         <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
@@ -2777,7 +2858,7 @@
         <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2786,13 +2867,13 @@
         <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99">
@@ -2800,7 +2881,7 @@
         <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2809,18 +2890,18 @@
         <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>148</v>
@@ -2829,332 +2910,332 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3165,22 +3246,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>28</v>
@@ -3188,22 +3269,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3211,19 +3292,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,22 +3315,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>28</v>
@@ -3257,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3361,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>59</v>
@@ -3303,19 +3384,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3407,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>59</v>
@@ -3349,19 +3430,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>59</v>
@@ -3372,22 +3453,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3395,19 +3476,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,24 +3499,576 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -607,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2654,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2674,22 +2680,22 @@
         <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -2697,528 +2703,528 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114">
@@ -3226,22 +3232,22 @@
         <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
@@ -3249,39 +3255,39 @@
         <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3321,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3344,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3361,22 +3367,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3384,19 +3390,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3413,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>59</v>
@@ -3430,22 +3436,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3453,19 +3459,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>59</v>
@@ -3476,22 +3482,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3499,22 +3505,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3522,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3545,22 +3551,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3568,22 +3574,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3591,22 +3597,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3614,22 +3620,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3637,19 +3643,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3660,22 +3666,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3683,19 +3689,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3706,19 +3712,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>59</v>
@@ -3729,22 +3735,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>28</v>
@@ -3752,22 +3758,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3775,22 +3781,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3798,22 +3804,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>28</v>
@@ -3821,22 +3827,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>28</v>
@@ -3844,22 +3850,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>28</v>
@@ -3867,19 +3873,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>59</v>
@@ -3890,19 +3896,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3913,19 +3919,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>59</v>
@@ -3936,19 +3942,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3959,19 +3965,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>59</v>
@@ -3982,22 +3988,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>28</v>
@@ -4005,22 +4011,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>28</v>
@@ -4028,22 +4034,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>28</v>
@@ -4051,24 +4057,70 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,12 +387,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -613,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1987,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2648,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2680,22 +2674,22 @@
         <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
@@ -2703,528 +2697,528 @@
         <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114">
@@ -3232,22 +3226,22 @@
         <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -3255,39 +3249,39 @@
         <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3292,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3315,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3367,22 +3361,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>28</v>
@@ -3390,19 +3384,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3407,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>59</v>
@@ -3436,22 +3430,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3459,19 +3453,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>59</v>
@@ -3482,22 +3476,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3505,22 +3499,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>28</v>
@@ -3528,19 +3522,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3551,22 +3545,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3574,22 +3568,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3597,22 +3591,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3620,22 +3614,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3643,19 +3637,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,22 +3660,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>28</v>
@@ -3689,19 +3683,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3712,19 +3706,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>59</v>
@@ -3735,22 +3729,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>28</v>
@@ -3758,22 +3752,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>28</v>
@@ -3781,22 +3775,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3804,22 +3798,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>28</v>
@@ -3827,22 +3821,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>28</v>
@@ -3850,22 +3844,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>28</v>
@@ -3873,19 +3867,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>59</v>
@@ -3896,19 +3890,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3919,19 +3913,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>59</v>
@@ -3942,19 +3936,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3965,19 +3959,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>59</v>
@@ -3988,22 +3982,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>28</v>
@@ -4011,22 +4005,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>28</v>
@@ -4034,22 +4028,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>28</v>
@@ -4057,70 +4051,24 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G152" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>Atto di costituzione di unione civile</t>
+    <t>Atto di costituzione e traduzione</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>Traduzione dell'Atto di costituzione di unione civile</t>
+    <t>Traduzione dell'atto di costituzione di unione civile</t>
   </si>
   <si>
     <t>Formula</t>
@@ -620,7 +620,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.39453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -613,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1395,7 +1407,7 @@
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>66</v>
@@ -1418,7 +1430,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>66</v>
@@ -1464,7 +1476,7 @@
         <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>66</v>
@@ -1487,7 +1499,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>66</v>
@@ -1553,7 +1565,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1562,7 +1574,7 @@
         <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1576,16 +1588,16 @@
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1599,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>66</v>
@@ -1625,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>66</v>
@@ -1648,7 +1660,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>66</v>
@@ -1832,7 +1844,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>66</v>
@@ -1855,7 +1867,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>66</v>
@@ -1901,7 +1913,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>66</v>
@@ -1924,7 +1936,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>66</v>
@@ -2010,19 +2022,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2045,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2068,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2091,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2114,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2137,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2160,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2183,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2206,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2229,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2252,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2275,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2298,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2321,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2344,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2367,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2390,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2413,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2436,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2459,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2482,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2505,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2528,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2551,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2574,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2597,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2620,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2643,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2666,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2689,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2712,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2723,663 +2735,663 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3390,19 +3402,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3413,22 +3425,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3436,19 +3448,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3459,22 +3471,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3482,22 +3494,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3505,19 +3517,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>59</v>
@@ -3528,19 +3540,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3551,22 +3563,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3574,22 +3586,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>28</v>
@@ -3597,19 +3609,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>59</v>
@@ -3620,22 +3632,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3643,19 +3655,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3666,19 +3678,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3689,22 +3701,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>28</v>
@@ -3712,22 +3724,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>28</v>
@@ -3735,22 +3747,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>28</v>
@@ -3758,19 +3770,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>59</v>
@@ -3781,22 +3793,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>28</v>
@@ -3804,19 +3816,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3839,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3850,19 +3862,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>59</v>
@@ -3873,22 +3885,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>28</v>
@@ -3896,22 +3908,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>28</v>
@@ -3919,19 +3931,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>59</v>
@@ -3942,19 +3954,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3965,22 +3977,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>28</v>
@@ -3988,22 +4000,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>28</v>
@@ -4011,19 +4023,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>59</v>
@@ -4034,22 +4046,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>28</v>
@@ -4057,22 +4069,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>28</v>
@@ -4080,19 +4092,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4103,24 +4115,162 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G152" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>28</v>
       </c>
     </row>
